--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +519,557 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>242.558207999666</v>
+        <v>0.6658270000000001</v>
       </c>
       <c r="H2">
-        <v>242.558207999666</v>
+        <v>1.997481</v>
       </c>
       <c r="I2">
-        <v>0.9793473851555905</v>
+        <v>0.002619014661824084</v>
       </c>
       <c r="J2">
-        <v>0.9793473851555905</v>
+        <v>0.002619014661824084</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.11336111518767</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N2">
-        <v>2.11336111518767</v>
+        <v>0.343144</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03414257747883775</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03414257747883775</v>
       </c>
       <c r="Q2">
-        <v>512.6130849560969</v>
+        <v>0.07615818002933335</v>
       </c>
       <c r="R2">
-        <v>512.6130849560969</v>
+        <v>0.6854236202640001</v>
       </c>
       <c r="S2">
-        <v>0.9793473851555905</v>
+        <v>8.941991100954083E-05</v>
       </c>
       <c r="T2">
-        <v>0.9793473851555905</v>
+        <v>8.941991100954083E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.6658270000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.997481</v>
+      </c>
+      <c r="I3">
+        <v>0.002619014661824084</v>
+      </c>
+      <c r="J3">
+        <v>0.002619014661824084</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3.175982333333334</v>
+      </c>
+      <c r="N3">
+        <v>9.527947000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.9480237703755849</v>
+      </c>
+      <c r="P3">
+        <v>0.9480237703755849</v>
+      </c>
+      <c r="Q3">
+        <v>2.114654789056334</v>
+      </c>
+      <c r="R3">
+        <v>19.031893101507</v>
+      </c>
+      <c r="S3">
+        <v>0.002482888154371406</v>
+      </c>
+      <c r="T3">
+        <v>0.002482888154371406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.6658270000000001</v>
+      </c>
+      <c r="H4">
+        <v>1.997481</v>
+      </c>
+      <c r="I4">
+        <v>0.002619014661824084</v>
+      </c>
+      <c r="J4">
+        <v>0.002619014661824084</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.05974466666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.179234</v>
+      </c>
+      <c r="O4">
+        <v>0.01783365214557738</v>
+      </c>
+      <c r="P4">
+        <v>0.01783365214557738</v>
+      </c>
+      <c r="Q4">
+        <v>0.03977961217266667</v>
+      </c>
+      <c r="R4">
+        <v>0.358016509554</v>
+      </c>
+      <c r="S4">
+        <v>4.67065964431377E-05</v>
+      </c>
+      <c r="T4">
+        <v>4.67065964431377E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5.11510146766912</v>
-      </c>
-      <c r="H3">
-        <v>5.11510146766912</v>
-      </c>
-      <c r="I3">
-        <v>0.02065261484440953</v>
-      </c>
-      <c r="J3">
-        <v>0.02065261484440953</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2.11336111518767</v>
-      </c>
-      <c r="N3">
-        <v>2.11336111518767</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>10.8100565420113</v>
-      </c>
-      <c r="R3">
-        <v>10.8100565420113</v>
-      </c>
-      <c r="S3">
-        <v>0.02065261484440953</v>
-      </c>
-      <c r="T3">
-        <v>0.02065261484440953</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>245.845932</v>
+      </c>
+      <c r="H5">
+        <v>737.537796</v>
+      </c>
+      <c r="I5">
+        <v>0.967029123868222</v>
+      </c>
+      <c r="J5">
+        <v>0.9670291238682222</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1143813333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.343144</v>
+      </c>
+      <c r="O5">
+        <v>0.03414257747883775</v>
+      </c>
+      <c r="P5">
+        <v>0.03414257747883775</v>
+      </c>
+      <c r="Q5">
+        <v>28.120185496736</v>
+      </c>
+      <c r="R5">
+        <v>253.081669470624</v>
+      </c>
+      <c r="S5">
+        <v>0.03301686678596336</v>
+      </c>
+      <c r="T5">
+        <v>0.03301686678596336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>245.845932</v>
+      </c>
+      <c r="H6">
+        <v>737.537796</v>
+      </c>
+      <c r="I6">
+        <v>0.967029123868222</v>
+      </c>
+      <c r="J6">
+        <v>0.9670291238682222</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.175982333333334</v>
+      </c>
+      <c r="N6">
+        <v>9.527947000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.9480237703755849</v>
+      </c>
+      <c r="P6">
+        <v>0.9480237703755849</v>
+      </c>
+      <c r="Q6">
+        <v>780.802336753868</v>
+      </c>
+      <c r="R6">
+        <v>7027.221030784813</v>
+      </c>
+      <c r="S6">
+        <v>0.9167665960725504</v>
+      </c>
+      <c r="T6">
+        <v>0.9167665960725505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>245.845932</v>
+      </c>
+      <c r="H7">
+        <v>737.537796</v>
+      </c>
+      <c r="I7">
+        <v>0.967029123868222</v>
+      </c>
+      <c r="J7">
+        <v>0.9670291238682222</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.05974466666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.179234</v>
+      </c>
+      <c r="O7">
+        <v>0.01783365214557738</v>
+      </c>
+      <c r="P7">
+        <v>0.01783365214557738</v>
+      </c>
+      <c r="Q7">
+        <v>14.687983258696</v>
+      </c>
+      <c r="R7">
+        <v>132.191849328264</v>
+      </c>
+      <c r="S7">
+        <v>0.01724566100970833</v>
+      </c>
+      <c r="T7">
+        <v>0.01724566100970834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.716294666666666</v>
+      </c>
+      <c r="H8">
+        <v>23.148884</v>
+      </c>
+      <c r="I8">
+        <v>0.03035186146995388</v>
+      </c>
+      <c r="J8">
+        <v>0.03035186146995388</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1143813333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.343144</v>
+      </c>
+      <c r="O8">
+        <v>0.03414257747883775</v>
+      </c>
+      <c r="P8">
+        <v>0.03414257747883775</v>
+      </c>
+      <c r="Q8">
+        <v>0.8826000723662222</v>
+      </c>
+      <c r="R8">
+        <v>7.943400651296</v>
+      </c>
+      <c r="S8">
+        <v>0.00103629078186485</v>
+      </c>
+      <c r="T8">
+        <v>0.00103629078186485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.716294666666666</v>
+      </c>
+      <c r="H9">
+        <v>23.148884</v>
+      </c>
+      <c r="I9">
+        <v>0.03035186146995388</v>
+      </c>
+      <c r="J9">
+        <v>0.03035186146995388</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.175982333333334</v>
+      </c>
+      <c r="N9">
+        <v>9.527947000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.9480237703755849</v>
+      </c>
+      <c r="P9">
+        <v>0.9480237703755849</v>
+      </c>
+      <c r="Q9">
+        <v>24.50681554012756</v>
+      </c>
+      <c r="R9">
+        <v>220.561339861148</v>
+      </c>
+      <c r="S9">
+        <v>0.02877428614866312</v>
+      </c>
+      <c r="T9">
+        <v>0.02877428614866312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.716294666666666</v>
+      </c>
+      <c r="H10">
+        <v>23.148884</v>
+      </c>
+      <c r="I10">
+        <v>0.03035186146995388</v>
+      </c>
+      <c r="J10">
+        <v>0.03035186146995388</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.05974466666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.179234</v>
+      </c>
+      <c r="O10">
+        <v>0.01783365214557738</v>
+      </c>
+      <c r="P10">
+        <v>0.01783365214557738</v>
+      </c>
+      <c r="Q10">
+        <v>0.4610074527617778</v>
+      </c>
+      <c r="R10">
+        <v>4.149067074856</v>
+      </c>
+      <c r="S10">
+        <v>0.0005412845394259105</v>
+      </c>
+      <c r="T10">
+        <v>0.0005412845394259105</v>
       </c>
     </row>
   </sheetData>
